--- a/data/電池電壓_分壓電路分析.xlsx
+++ b/data/電池電壓_分壓電路分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Voltage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -407,7 +407,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +429,29 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>16.8</v>
       </c>
@@ -456,8 +477,35 @@
         <f>E2*1000</f>
         <v>8400</v>
       </c>
+      <c r="J2">
+        <v>14.8</v>
+      </c>
+      <c r="K2">
+        <f>B2</f>
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <f>C2</f>
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2" si="0">J2*L2/(K2+L2)</f>
+        <v>7.4</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2" si="1">J2/(K2+L2)*1000</f>
+        <v>7.4</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2" si="2">(N2/1000)^2*(K2+L2)</f>
+        <v>0.10952000000000001</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2" si="3">N2*1000</f>
+        <v>7400</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>16.8</v>
       </c>
@@ -468,23 +516,50 @@
         <v>5000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">A3*C3/(B3+C3)</f>
+        <f t="shared" ref="D3:D5" si="4">A3*C3/(B3+C3)</f>
         <v>4.9411764705882355</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">A3/(B3+C3)*1000</f>
+        <f t="shared" ref="E3:E5" si="5">A3/(B3+C3)*1000</f>
         <v>0.98823529411764721</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="2">(E3/1000)^2*(B3+C3)</f>
+        <f t="shared" ref="F3:F5" si="6">(E3/1000)^2*(B3+C3)</f>
         <v>1.6602352941176474E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="3">E3*1000</f>
+        <f t="shared" ref="H3:H5" si="7">E3*1000</f>
         <v>988.23529411764719</v>
       </c>
+      <c r="J3">
+        <v>14.8</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="8">B3</f>
+        <v>12000</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="9">C3</f>
+        <v>5000</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="10">J3*L3/(K3+L3)</f>
+        <v>4.3529411764705879</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N5" si="11">J3/(K3+L3)*1000</f>
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O5" si="12">(N3/1000)^2*(K3+L3)</f>
+        <v>1.2884705882352942E-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q5" si="13">N3*1000</f>
+        <v>870.58823529411768</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>16.8</v>
       </c>
@@ -495,74 +570,101 @@
         <v>8400</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.9690140845070419</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.59154929577464799</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.9380281690140872E-3</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>591.54929577464804</v>
       </c>
+      <c r="J4">
+        <v>14.8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="9"/>
+        <v>8400</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="10"/>
+        <v>4.3774647887323948</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="11"/>
+        <v>0.52112676056338025</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="12"/>
+        <v>7.7126760563380288E-3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="13"/>
+        <v>521.12676056338023</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>16.8</v>
       </c>
       <c r="B5">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="C5">
         <v>20000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4.9411764705882355</v>
+        <f t="shared" si="4"/>
+        <v>4.8</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.2470588235294118</v>
+        <f t="shared" si="5"/>
+        <v>0.24000000000000002</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>4.1505882352941186E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.032E-3</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
-        <v>247.0588235294118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+        <f t="shared" si="7"/>
+        <v>240.00000000000003</v>
+      </c>
+      <c r="J5">
         <v>14.8</v>
       </c>
-      <c r="B8">
-        <v>24000</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="4">A8*C8/(B8+C8)</f>
-        <v>4.3529411764705879</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8" si="5">A8/(B8+C8)*1000</f>
-        <v>0.43529411764705883</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8" si="6">(E8/1000)^2*(B8+C8)</f>
-        <v>6.4423529411764711E-3</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8" si="7">E8*1000</f>
-        <v>435.29411764705884</v>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="9"/>
+        <v>20000</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="10"/>
+        <v>4.2285714285714286</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="11"/>
+        <v>0.21142857142857144</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="12"/>
+        <v>3.1291428571428577E-3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="13"/>
+        <v>211.42857142857144</v>
       </c>
     </row>
   </sheetData>
